--- a/data/37-intersection map LIN EV3 Solution.xlsx
+++ b/data/37-intersection map LIN EV3 Solution.xlsx
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -518,10 +518,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -532,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -555,7 +555,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -604,16 +604,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15.28515036000042</v>
+        <v>9.743669395200619</v>
       </c>
       <c r="D7" t="n">
-        <v>15.28515036000042</v>
+        <v>9.743669395200619</v>
       </c>
       <c r="E7" t="n">
-        <v>9.761693333333419</v>
+        <v>10.66022240000029</v>
       </c>
       <c r="F7" t="n">
-        <v>10.01169333333342</v>
+        <v>10.91022240000029</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -626,7 +626,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -635,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -652,16 +652,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>16.03395863333373</v>
+        <v>8.994861121867286</v>
       </c>
       <c r="D9" t="n">
-        <v>16.03395863333373</v>
+        <v>8.994861121867286</v>
       </c>
       <c r="E9" t="n">
-        <v>9.593077777777864</v>
+        <v>11.07883795555585</v>
       </c>
       <c r="F9" t="n">
-        <v>9.593077777777864</v>
+        <v>11.07883795555585</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -675,16 +675,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>18.26410024000039</v>
+        <v>20.02402481999994</v>
       </c>
       <c r="D10" t="n">
-        <v>18.26410024000039</v>
+        <v>20.02402481999994</v>
       </c>
       <c r="E10" t="n">
-        <v>9.091128888888974</v>
+        <v>15.53599004799397</v>
       </c>
       <c r="F10" t="n">
-        <v>9.091128888888974</v>
+        <v>15.53599004799397</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -718,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -745,19 +745,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C13" t="n">
-        <v>14.68447542000042</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>14.68447542000042</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>10.14697555555564</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>10.14697555555564</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -768,19 +768,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>10.34434433520062</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>10.34434433520062</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>10.52494017777807</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>10.52494017777807</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -791,25 +791,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>9.509152608534004</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>11.09315260853395</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>10.10632462222252</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>10.35632462222251</v>
       </c>
       <c r="G15" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -818,25 +818,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>7.060986181867287</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>20.55063309333328</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>11.51412017777807</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>15.41737449243837</v>
       </c>
       <c r="G16" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3.903254314660298</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -848,16 +848,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>13.56533381333375</v>
+        <v>10.700558633334</v>
       </c>
       <c r="D17" t="n">
-        <v>13.56533381333375</v>
+        <v>10.700558633334</v>
       </c>
       <c r="E17" t="n">
-        <v>10.39892444444453</v>
+        <v>9.943077777778075</v>
       </c>
       <c r="F17" t="n">
-        <v>10.39892444444453</v>
+        <v>9.943077777778075</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -871,16 +871,16 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>13.03872554000043</v>
+        <v>11.22716690666719</v>
       </c>
       <c r="D18" t="n">
-        <v>13.03872554000043</v>
+        <v>11.22716690666719</v>
       </c>
       <c r="E18" t="n">
-        <v>10.51754000000009</v>
+        <v>9.574462222222534</v>
       </c>
       <c r="F18" t="n">
-        <v>10.76754000000009</v>
+        <v>9.824462222222534</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -893,7 +893,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -919,16 +919,16 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>19.38324184666706</v>
+        <v>18.90488321333328</v>
       </c>
       <c r="D20" t="n">
-        <v>19.38324184666706</v>
+        <v>18.90488321333328</v>
       </c>
       <c r="E20" t="n">
-        <v>8.839179999999985</v>
+        <v>15.78793893688286</v>
       </c>
       <c r="F20" t="n">
-        <v>8.839179999999985</v>
+        <v>15.78793893688286</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -939,19 +939,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>17.63760827333331</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>17.63760827333331</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>16.07322115910508</v>
       </c>
       <c r="F21" t="n">
-        <v>8</v>
+        <v>16.07322115910508</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -962,19 +962,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C22" t="n">
-        <v>20.28018345333369</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>20.28018345333369</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>8.637231111111108</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>8.637231111111108</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1011,16 +1011,16 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>20.95492506000022</v>
+        <v>14.95492505999999</v>
       </c>
       <c r="D24" t="n">
-        <v>20.95492506000022</v>
+        <v>14.95492505999999</v>
       </c>
       <c r="E24" t="n">
-        <v>8.235282222222223</v>
+        <v>8.235282222222237</v>
       </c>
       <c r="F24" t="n">
-        <v>8.485282222222223</v>
+        <v>8.485282222222237</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1036,10 +1036,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D25" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -1056,19 +1056,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C26" t="n">
-        <v>20.48387816418572</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>20.48387816418572</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>16.20716445241395</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>16.20716445241395</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1079,25 +1079,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C27" t="n">
-        <v>19.00039213938574</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>23.63760827333331</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>16.4104112968584</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>17.14229515638295</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7318838595245527</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1106,19 +1106,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>13.76171678666661</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>13.76171678666661</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>8.753897777778135</v>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>8.753897777778135</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -1129,7 +1129,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -1155,16 +1155,16 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>11.91967728231904</v>
+        <v>12.34630851333373</v>
       </c>
       <c r="D30" t="n">
-        <v>11.91967728231904</v>
+        <v>12.34630851333373</v>
       </c>
       <c r="E30" t="n">
-        <v>11.01945538574719</v>
+        <v>9.072513333333671</v>
       </c>
       <c r="F30" t="n">
-        <v>11.26945538574719</v>
+        <v>9.322513333333671</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1177,19 +1177,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>9.851795149115574e-06</v>
+        <v>-0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0001160336867016554</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0001160336867016554</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>8.000029347436632</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>8.000029347436632</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -1223,19 +1223,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C33" t="n">
-        <v>11.55601567565237</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>11.55601567565237</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>11.35140427463618</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>11.35140427463618</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1246,19 +1246,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C34" t="n">
-        <v>11.02940740231905</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>11.02940740231905</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>11.47001983019173</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>11.47001983019173</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -1278,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -1292,19 +1292,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C36" t="n">
-        <v>10.50279912898572</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>10.50279912898572</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>11.58863538574729</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>11.58863538574729</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -1315,7 +1315,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1324,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -1338,25 +1338,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C38" t="n">
-        <v>9.457724188985724</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>23.28172418898572</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>11.82391760796951</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>15.82391760796951</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1368,16 +1368,16 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D39" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E39" t="n">
-        <v>17.51091071193851</v>
+        <v>16.44183671466071</v>
       </c>
       <c r="F39" t="n">
-        <v>17.51091071193851</v>
+        <v>16.44183671466071</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -1394,7 +1394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1437,7 +1437,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D13" t="n">
-        <v>15.28515036000042</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>10.01169333333342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1692,13 +1692,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D17" t="n">
-        <v>16.03395863333375</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>9.593077777777864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1726,13 +1726,13 @@
         <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>8.994861121867286</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>11.07883795555585</v>
       </c>
     </row>
     <row r="20">
@@ -1760,13 +1760,13 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>20.02402481999994</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>15.53599004799397</v>
       </c>
     </row>
     <row r="22">
@@ -1774,7 +1774,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C22" t="n">
         <v>-0</v>
@@ -1788,13 +1788,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>10</v>
+      </c>
+      <c r="B23" t="n">
         <v>11</v>
       </c>
-      <c r="B23" t="n">
-        <v>19</v>
-      </c>
       <c r="C23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24" t="n">
         <v>-0</v>
@@ -1822,13 +1822,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1842,24 +1842,24 @@
         <v>12</v>
       </c>
       <c r="B26" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D26" t="n">
-        <v>14.68447542000042</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>10.14697555555564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C27" t="n">
         <v>-0</v>
@@ -1873,13 +1873,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1893,16 +1893,16 @@
         <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>11.09315260853395</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>10.35632462222251</v>
       </c>
     </row>
     <row r="30">
@@ -1910,7 +1910,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C30" t="n">
         <v>-0</v>
@@ -1924,10 +1924,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C31" t="n">
         <v>-0</v>
@@ -1941,13 +1941,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
+        <v>15</v>
+      </c>
+      <c r="B32" t="n">
         <v>16</v>
       </c>
-      <c r="B32" t="n">
-        <v>8</v>
-      </c>
       <c r="C32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1961,16 +1961,16 @@
         <v>16</v>
       </c>
       <c r="B33" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D33" t="n">
-        <v>13.56533381333377</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>10.39892444444453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1978,7 +1978,7 @@
         <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="n">
         <v>-0</v>
@@ -1995,7 +1995,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" t="n">
         <v>-0</v>
@@ -2009,10 +2009,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36" t="n">
         <v>-0</v>
@@ -2029,7 +2029,7 @@
         <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C37" t="n">
         <v>-0</v>
@@ -2043,13 +2043,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -2063,10 +2063,10 @@
         <v>18</v>
       </c>
       <c r="B39" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         <v>18</v>
       </c>
       <c r="B40" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" t="n">
         <v>-0</v>
@@ -2094,10 +2094,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C41" t="n">
         <v>-0</v>
@@ -2114,16 +2114,16 @@
         <v>19</v>
       </c>
       <c r="B42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>18.90488321333331</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>15.78793893688286</v>
       </c>
     </row>
     <row r="43">
@@ -2131,7 +2131,7 @@
         <v>19</v>
       </c>
       <c r="B43" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C43" t="n">
         <v>-0</v>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C44" t="n">
         <v>-0</v>
@@ -2162,13 +2162,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
+        <v>20</v>
+      </c>
+      <c r="B45" t="n">
         <v>21</v>
       </c>
-      <c r="B45" t="n">
-        <v>28</v>
-      </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C46" t="n">
         <v>-0</v>
@@ -2196,19 +2196,19 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D47" t="n">
-        <v>20.95492506000034</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>8.485282222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2216,7 +2216,7 @@
         <v>23</v>
       </c>
       <c r="B48" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -2230,13 +2230,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
+        <v>23</v>
+      </c>
+      <c r="B49" t="n">
         <v>24</v>
       </c>
-      <c r="B49" t="n">
-        <v>20</v>
-      </c>
       <c r="C49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>24</v>
       </c>
       <c r="B50" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C50" t="n">
         <v>-0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -2267,7 +2267,7 @@
         <v>24</v>
       </c>
       <c r="B51" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -2281,19 +2281,19 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="53">
@@ -2301,16 +2301,16 @@
         <v>25</v>
       </c>
       <c r="B53" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>20.48387816418574</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>16.20716445241395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2318,7 +2318,7 @@
         <v>25</v>
       </c>
       <c r="B54" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" t="n">
         <v>-0</v>
@@ -2335,7 +2335,7 @@
         <v>25</v>
       </c>
       <c r="B55" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C55" t="n">
         <v>-0</v>
@@ -2352,7 +2352,7 @@
         <v>25</v>
       </c>
       <c r="B56" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C56" t="n">
         <v>-0</v>
@@ -2366,13 +2366,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B57" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>27</v>
       </c>
       <c r="B58" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C58" t="n">
         <v>-0</v>
@@ -2403,7 +2403,7 @@
         <v>27</v>
       </c>
       <c r="B59" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C59" t="n">
         <v>-0</v>
@@ -2420,7 +2420,7 @@
         <v>27</v>
       </c>
       <c r="B60" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C60" t="n">
         <v>-0</v>
@@ -2434,13 +2434,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B61" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>29</v>
       </c>
       <c r="B62" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C62" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>12.34630851333386</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>9.322513333333658</v>
       </c>
     </row>
     <row r="63">
@@ -2471,7 +2471,7 @@
         <v>29</v>
       </c>
       <c r="B63" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C63" t="n">
         <v>-0</v>
@@ -2488,7 +2488,7 @@
         <v>29</v>
       </c>
       <c r="B64" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C64" t="n">
         <v>-0</v>
@@ -2502,10 +2502,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B65" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C65" t="n">
         <v>-0</v>
@@ -2522,10 +2522,10 @@
         <v>30</v>
       </c>
       <c r="B66" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>30</v>
       </c>
       <c r="B67" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C67" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -2553,13 +2553,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B68" t="n">
         <v>36</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B69" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C69" t="n">
         <v>-0</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B70" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C70" t="n">
         <v>-0</v>
@@ -2607,24 +2607,24 @@
         <v>33</v>
       </c>
       <c r="B71" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D71" t="n">
-        <v>11.02940740231906</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>11.47001983019173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B72" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C72" t="n">
         <v>-0</v>
@@ -2641,7 +2641,7 @@
         <v>34</v>
       </c>
       <c r="B73" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C73" t="n">
         <v>-0</v>
@@ -2655,10 +2655,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
+        <v>34</v>
+      </c>
+      <c r="B74" t="n">
         <v>35</v>
-      </c>
-      <c r="B74" t="n">
-        <v>36</v>
       </c>
       <c r="C74" t="n">
         <v>-0</v>
@@ -2672,13 +2672,13 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
+        <v>35</v>
+      </c>
+      <c r="B75" t="n">
         <v>36</v>
       </c>
-      <c r="B75" t="n">
-        <v>32</v>
-      </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>36</v>
       </c>
       <c r="B76" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C76" t="n">
         <v>-0</v>
@@ -2706,10 +2706,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
+        <v>36</v>
+      </c>
+      <c r="B77" t="n">
         <v>37</v>
-      </c>
-      <c r="B77" t="n">
-        <v>34</v>
       </c>
       <c r="C77" t="n">
         <v>-0</v>
@@ -2726,7 +2726,7 @@
         <v>37</v>
       </c>
       <c r="B78" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C78" t="n">
         <v>-0</v>
@@ -2740,13 +2740,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B79" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>38</v>
       </c>
       <c r="B80" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>38</v>
       </c>
       <c r="B81" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B82" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B83" t="n">
         <v>38</v>
@@ -2825,10 +2825,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C84" t="n">
         <v>-0</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -2859,13 +2859,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
+        <v>10</v>
+      </c>
+      <c r="B86" t="n">
         <v>1</v>
       </c>
-      <c r="B86" t="n">
-        <v>2</v>
-      </c>
       <c r="C86" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B87" t="n">
         <v>2</v>
@@ -2893,13 +2893,13 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B88" t="n">
         <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -2910,13 +2910,13 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
+        <v>7</v>
+      </c>
+      <c r="B89" t="n">
         <v>2</v>
       </c>
-      <c r="B89" t="n">
-        <v>3</v>
-      </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -2927,13 +2927,13 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
+        <v>2</v>
+      </c>
+      <c r="B90" t="n">
         <v>3</v>
       </c>
-      <c r="B90" t="n">
-        <v>4</v>
-      </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B91" t="n">
         <v>4</v>
@@ -2961,10 +2961,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" t="n">
         <v>-0</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B93" t="n">
         <v>5</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B94" t="n">
         <v>5</v>
@@ -3012,10 +3012,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="n">
         <v>-0</v>
@@ -3029,13 +3029,13 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B96" t="n">
         <v>6</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -3046,30 +3046,30 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
+        <v>13</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6</v>
+      </c>
+      <c r="C97" t="n">
         <v>1</v>
       </c>
-      <c r="B97" t="n">
-        <v>7</v>
-      </c>
-      <c r="C97" t="n">
-        <v>-0</v>
-      </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>10.34434433520062</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>10.52494017777807</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
         <v>7</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" t="n">
         <v>-0</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B100" t="n">
         <v>8</v>
@@ -3106,15 +3106,15 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>18.26410024000039</v>
+        <v>9.743669395200619</v>
       </c>
       <c r="E100" t="n">
-        <v>9.091128888888974</v>
+        <v>10.91022240000029</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B101" t="n">
         <v>8</v>
@@ -3134,10 +3134,10 @@
         <v>15</v>
       </c>
       <c r="B102" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B103" t="n">
         <v>9</v>
@@ -3157,18 +3157,18 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>19.38324184666706</v>
+        <v>20.55063309333328</v>
       </c>
       <c r="E103" t="n">
-        <v>8.839179999999985</v>
+        <v>15.41737449243841</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B104" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>19</v>
       </c>
       <c r="B105" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B106" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C106" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -3216,13 +3216,13 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B107" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -3233,13 +3233,13 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B108" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C108" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -3250,13 +3250,13 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -3267,10 +3267,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B110" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C110" t="n">
         <v>-0</v>
@@ -3284,10 +3284,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B111" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111" t="n">
         <v>-0</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B112" t="n">
         <v>14</v>
@@ -3321,24 +3321,24 @@
         <v>16</v>
       </c>
       <c r="B113" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>10.700558633334</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>9.943077777778075</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B114" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C114" t="n">
         <v>-0</v>
@@ -3352,10 +3352,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B115" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C115" t="n">
         <v>-0</v>
@@ -3369,13 +3369,13 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B116" t="n">
         <v>16</v>
       </c>
       <c r="C116" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -3386,19 +3386,19 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B117" t="n">
         <v>16</v>
       </c>
       <c r="C117" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>11.22716690666734</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>9.82446222222252</v>
       </c>
     </row>
     <row r="118">
@@ -3406,7 +3406,7 @@
         <v>18</v>
       </c>
       <c r="B118" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C118" t="n">
         <v>-0</v>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B119" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C119" t="n">
         <v>-0</v>
@@ -3437,10 +3437,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B120" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C120" t="n">
         <v>-0</v>
@@ -3454,13 +3454,13 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B121" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B122" t="n">
         <v>18</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -3488,13 +3488,13 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B123" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -3505,24 +3505,24 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B124" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D124" t="n">
-        <v>20.2801834533337</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>8.637231111111108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B125" t="n">
         <v>19</v>
@@ -3542,10 +3542,10 @@
         <v>21</v>
       </c>
       <c r="B126" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>28</v>
       </c>
       <c r="B127" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C127" t="n">
         <v>-0</v>
@@ -3573,13 +3573,13 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B128" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -3590,10 +3590,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
+        <v>28</v>
+      </c>
+      <c r="B129" t="n">
         <v>21</v>
-      </c>
-      <c r="B129" t="n">
-        <v>23</v>
       </c>
       <c r="C129" t="n">
         <v>-0</v>
@@ -3607,30 +3607,30 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B130" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D130" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B131" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -3641,24 +3641,24 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B132" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B133" t="n">
         <v>24</v>
@@ -3675,13 +3675,13 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
+        <v>22</v>
+      </c>
+      <c r="B134" t="n">
         <v>24</v>
       </c>
-      <c r="B134" t="n">
-        <v>25</v>
-      </c>
       <c r="C134" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>26</v>
       </c>
       <c r="B135" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B136" t="n">
         <v>25</v>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B137" t="n">
         <v>25</v>
@@ -3743,30 +3743,30 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B138" t="n">
         <v>25</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D138" t="n">
-        <v>23.28172418898572</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>15.82391760796951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B139" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -3777,10 +3777,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B140" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C140" t="n">
         <v>-0</v>
@@ -3794,30 +3794,30 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B141" t="n">
         <v>27</v>
       </c>
       <c r="C141" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>14.95492505999994</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>8.485282222222249</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B142" t="n">
         <v>27</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -3828,27 +3828,27 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B143" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C143" t="n">
-        <v>0.999990145127346</v>
+        <v>-0</v>
       </c>
       <c r="D143" t="n">
-        <v>13.03869701462179</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>10.76742895411424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
+        <v>35</v>
+      </c>
+      <c r="B144" t="n">
         <v>27</v>
-      </c>
-      <c r="B144" t="n">
-        <v>29</v>
       </c>
       <c r="C144" t="n">
         <v>-0</v>
@@ -3862,61 +3862,61 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B145" t="n">
         <v>29</v>
       </c>
       <c r="C145" t="n">
-        <v>9.853795149115573e-06</v>
+        <v>-0</v>
       </c>
       <c r="D145" t="n">
-        <v>0.0001160336867194189</v>
+        <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>7.885702785959126e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B146" t="n">
         <v>29</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>13.76171678666706</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>8.753897777778143</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B147" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C147" t="n">
-        <v>9.853795149115573e-06</v>
+        <v>-0</v>
       </c>
       <c r="D147" t="n">
-        <v>0.0001285253786078231</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0.0001053924010867498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B148" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C148" t="n">
         <v>-0</v>
@@ -3930,13 +3930,13 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B149" t="n">
         <v>30</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -3947,10 +3947,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B150" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C150" t="n">
         <v>-0</v>
@@ -3964,44 +3964,44 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B151" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>11.91967728231904</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>11.26945538574719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B152" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D152" t="n">
-        <v>11.55601567565238</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>11.35140427463618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B153" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C153" t="n">
         <v>-0</v>
@@ -4015,10 +4015,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B154" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C154" t="n">
         <v>-0</v>
@@ -4035,7 +4035,7 @@
         <v>35</v>
       </c>
       <c r="B155" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C155" t="n">
         <v>-0</v>
@@ -4049,10 +4049,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B156" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C156" t="n">
         <v>-0</v>
@@ -4066,10 +4066,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B157" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C157" t="n">
         <v>-0</v>
@@ -4083,10 +4083,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B158" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C158" t="n">
         <v>-0</v>
@@ -4100,10 +4100,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B159" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C159" t="n">
         <v>-0</v>
@@ -4117,30 +4117,30 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B160" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D160" t="n">
-        <v>10.50279912898572</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>11.58863538574729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B161" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -4151,13 +4151,13 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B162" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B163" t="n">
         <v>38</v>
@@ -4177,18 +4177,18 @@
         <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>23.63760827333331</v>
+        <v>17.63760827333332</v>
       </c>
       <c r="E163" t="n">
-        <v>17.14229515638295</v>
+        <v>16.07322115910515</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
+        <v>22</v>
+      </c>
+      <c r="B164" t="n">
         <v>38</v>
-      </c>
-      <c r="B164" t="n">
-        <v>23</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4202,18 +4202,52 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
+        <v>26</v>
+      </c>
+      <c r="B165" t="n">
         <v>38</v>
       </c>
-      <c r="B165" t="n">
+      <c r="C165" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>38</v>
+      </c>
+      <c r="B166" t="n">
+        <v>23</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>38</v>
+      </c>
+      <c r="B167" t="n">
         <v>25</v>
       </c>
-      <c r="C165" t="n">
-        <v>0</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0</v>
-      </c>
-      <c r="E165" t="n">
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
         <v>0</v>
       </c>
     </row>
